--- a/Final/rossmann-store-sales/features.xlsx
+++ b/Final/rossmann-store-sales/features.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Udacity\Github\Final\rossmann-store-sales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Udacity\Final\rossmann-store-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95338307-835E-478F-A3DF-C81CE73C502C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$59</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -394,7 +402,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,7 +467,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -473,7 +481,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -729,6 +736,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CBD-424C-B21C-29B74CA2C876}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1466,7 +1478,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1746,19 +1764,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1789,7 +1807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1809,7 +1827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1882,7 +1900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1893,7 +1911,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1943,7 +1961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1957,272 +1975,272 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>56</v>
       </c>
@@ -2234,326 +2252,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A59"/>
+  <autoFilter ref="A1:A59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>41275</v>
       </c>
@@ -2561,7 +2579,7 @@
         <v>115171</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41306</v>
       </c>
@@ -2569,7 +2587,7 @@
         <v>111114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41334</v>
       </c>
@@ -2577,7 +2595,7 @@
         <v>130525</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41365</v>
       </c>
@@ -2585,7 +2603,7 @@
         <v>116878</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41395</v>
       </c>
@@ -2593,7 +2611,7 @@
         <v>116379</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41426</v>
       </c>
@@ -2601,7 +2619,7 @@
         <v>115871</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41456</v>
       </c>
@@ -2609,7 +2627,7 @@
         <v>138778</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41487</v>
       </c>
@@ -2617,7 +2635,7 @@
         <v>125163</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41518</v>
       </c>
@@ -2625,7 +2643,7 @@
         <v>119081</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41548</v>
       </c>
@@ -2633,7 +2651,7 @@
         <v>120362</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41579</v>
       </c>
@@ -2641,7 +2659,7 @@
         <v>128628</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41609</v>
       </c>
@@ -2649,7 +2667,7 @@
         <v>150214</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41640</v>
       </c>
@@ -2657,7 +2675,7 @@
         <v>122249</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41671</v>
       </c>
@@ -2665,7 +2683,7 @@
         <v>114449</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41699</v>
       </c>
@@ -2673,7 +2691,7 @@
         <v>125031</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41730</v>
       </c>
@@ -2681,7 +2699,7 @@
         <v>122853</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41760</v>
       </c>
@@ -2689,7 +2707,7 @@
         <v>118629</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41791</v>
       </c>
@@ -2697,7 +2715,7 @@
         <v>122758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41821</v>
       </c>
@@ -2705,7 +2723,7 @@
         <v>132209</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41852</v>
       </c>
@@ -2713,7 +2731,7 @@
         <v>120952</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41883</v>
       </c>
@@ -2721,7 +2739,7 @@
         <v>128828</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41913</v>
       </c>
@@ -2729,7 +2747,7 @@
         <v>121397</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41944</v>
       </c>
@@ -2737,7 +2755,7 @@
         <v>132657</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41974</v>
       </c>
@@ -2745,7 +2763,7 @@
         <v>154420</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42005</v>
       </c>
@@ -2753,7 +2771,7 @@
         <v>127498</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42036</v>
       </c>
@@ -2761,7 +2779,7 @@
         <v>114078</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42064</v>
       </c>
@@ -2769,7 +2787,7 @@
         <v>134574</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42095</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>121012</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42125</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>115535</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42156</v>
       </c>
@@ -2793,7 +2811,7 @@
         <v>132800</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42186</v>
       </c>
@@ -2806,4 +2824,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821BE88A-FF45-410B-96E8-48E194AA244D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>6*7*1115</f>
+        <v>46830</v>
+      </c>
+      <c r="B1">
+        <f>400/30</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>B1/12</f>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>